--- a/others/ゲーム仕様書/00_チームロゴ表示シーン/イメージ図/仕様書(チームロゴ表示シーン)_画面イメージ_ver1.00_2015_10_30_1655.xlsx
+++ b/others/ゲーム仕様書/00_チームロゴ表示シーン/イメージ図/仕様書(チームロゴ表示シーン)_画面イメージ_ver1.00_2015_10_30_1655.xlsx
@@ -417,60 +417,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="4998720"/>
-          <a:ext cx="6819900" cy="4221480"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -495,6 +441,14 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -517,7 +471,68 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2354580" y="2209800"/>
+          <a:ext cx="1645920" cy="891540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>チームロゴ</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -816,7 +831,7 @@
   <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
